--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/F13a1-Itga9.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/F13a1-Itga9.xlsx
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.2253675</v>
+        <v>1.3303495</v>
       </c>
       <c r="H2">
-        <v>0.4507350000000001</v>
+        <v>2.660699</v>
       </c>
       <c r="I2">
-        <v>0.0008255714740055151</v>
+        <v>0.002620231132000879</v>
       </c>
       <c r="J2">
-        <v>0.0005505514641946941</v>
+        <v>0.001750526019878014</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.60302</v>
+        <v>2.326206</v>
       </c>
       <c r="N2">
-        <v>13.20604</v>
+        <v>4.652412</v>
       </c>
       <c r="O2">
-        <v>0.2062486251499857</v>
+        <v>0.2428846460657843</v>
       </c>
       <c r="P2">
-        <v>0.1490335290681818</v>
+        <v>0.186053910865194</v>
       </c>
       <c r="Q2">
-        <v>1.48810610985</v>
+        <v>3.094666988997</v>
       </c>
       <c r="R2">
-        <v>5.952424439400001</v>
+        <v>12.378667955988</v>
       </c>
       <c r="S2">
-        <v>0.0001702729814766847</v>
+        <v>0.0006364139111065827</v>
       </c>
       <c r="T2">
-        <v>8.205062764258999E-05</v>
+        <v>0.000325692212069587</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.2253675</v>
+        <v>1.3303495</v>
       </c>
       <c r="H3">
-        <v>0.4507350000000001</v>
+        <v>2.660699</v>
       </c>
       <c r="I3">
-        <v>0.0008255714740055151</v>
+        <v>0.002620231132000879</v>
       </c>
       <c r="J3">
-        <v>0.0005505514641946941</v>
+        <v>0.001750526019878014</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>8.668665000000001</v>
       </c>
       <c r="O3">
-        <v>0.09025669255057035</v>
+        <v>0.301705241695111</v>
       </c>
       <c r="P3">
-        <v>0.0978280951185844</v>
+        <v>0.3466672825257581</v>
       </c>
       <c r="Q3">
-        <v>0.6512117864625001</v>
+        <v>3.8441180494725</v>
       </c>
       <c r="R3">
-        <v>3.907270718775001</v>
+        <v>23.064708296835</v>
       </c>
       <c r="S3">
-        <v>7.451335070783695E-05</v>
+        <v>0.0007905374669773794</v>
       </c>
       <c r="T3">
-        <v>5.385940100691445E-05</v>
+        <v>0.0006068500983017425</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.2253675</v>
+        <v>1.3303495</v>
       </c>
       <c r="H4">
-        <v>0.4507350000000001</v>
+        <v>2.660699</v>
       </c>
       <c r="I4">
-        <v>0.0008255714740055151</v>
+        <v>0.002620231132000879</v>
       </c>
       <c r="J4">
-        <v>0.0005505514641946941</v>
+        <v>0.001750526019878014</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.577456666666667</v>
+        <v>1.056895</v>
       </c>
       <c r="N4">
-        <v>19.73237</v>
+        <v>3.170685</v>
       </c>
       <c r="O4">
-        <v>0.2054501416751135</v>
+        <v>0.1103528956608731</v>
       </c>
       <c r="P4">
-        <v>0.2226848273955795</v>
+        <v>0.1267983885287046</v>
       </c>
       <c r="Q4">
-        <v>1.482344965325</v>
+        <v>1.4060397348025</v>
       </c>
       <c r="R4">
-        <v>8.894069791950001</v>
+        <v>8.436238408814999</v>
       </c>
       <c r="S4">
-        <v>0.0001696137762973654</v>
+        <v>0.0002891500927170644</v>
       </c>
       <c r="T4">
-        <v>0.000122599457776579</v>
+        <v>0.0002219638783980994</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.2253675</v>
+        <v>1.3303495</v>
       </c>
       <c r="H5">
-        <v>0.4507350000000001</v>
+        <v>2.660699</v>
       </c>
       <c r="I5">
-        <v>0.0008255714740055151</v>
+        <v>0.002620231132000879</v>
       </c>
       <c r="J5">
-        <v>0.0005505514641946941</v>
+        <v>0.001750526019878014</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.8303464999999999</v>
+        <v>1.400306</v>
       </c>
       <c r="N5">
-        <v>1.660693</v>
+        <v>2.800612</v>
       </c>
       <c r="O5">
-        <v>0.02593628733868784</v>
+        <v>0.1462092468138222</v>
       </c>
       <c r="P5">
-        <v>0.01874134399780903</v>
+        <v>0.1119988546620533</v>
       </c>
       <c r="Q5">
-        <v>0.18713311483875</v>
+        <v>1.862896386947</v>
       </c>
       <c r="R5">
-        <v>0.748532459355</v>
+        <v>7.451585547788</v>
       </c>
       <c r="S5">
-        <v>2.14122589684311E-05</v>
+        <v>0.0003831020202879773</v>
       </c>
       <c r="T5">
-        <v>1.031807437897021E-05</v>
+        <v>0.0001960569092824604</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.2253675</v>
+        <v>1.3303495</v>
       </c>
       <c r="H6">
-        <v>0.4507350000000001</v>
+        <v>2.660699</v>
       </c>
       <c r="I6">
-        <v>0.0008255714740055151</v>
+        <v>0.002620231132000879</v>
       </c>
       <c r="J6">
-        <v>0.0005505514641946941</v>
+        <v>0.001750526019878014</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.030276666666667</v>
+        <v>0.4705963333333334</v>
       </c>
       <c r="N6">
-        <v>9.09083</v>
+        <v>1.411789</v>
       </c>
       <c r="O6">
-        <v>0.09465220404058775</v>
+        <v>0.04913607129442642</v>
       </c>
       <c r="P6">
-        <v>0.1025923347997507</v>
+        <v>0.05645864226265031</v>
       </c>
       <c r="Q6">
-        <v>0.6829258766750002</v>
+        <v>0.6260575967518335</v>
       </c>
       <c r="R6">
-        <v>4.097555260050001</v>
+        <v>3.756345580511001</v>
       </c>
       <c r="S6">
-        <v>7.814215960765879E-05</v>
+        <v>0.0001287478637098708</v>
       </c>
       <c r="T6">
-        <v>5.648236013915499E-05</v>
+        <v>9.883232232775392E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.2253675</v>
+        <v>1.3303495</v>
       </c>
       <c r="H7">
-        <v>0.4507350000000001</v>
+        <v>2.660699</v>
       </c>
       <c r="I7">
-        <v>0.0008255714740055151</v>
+        <v>0.002620231132000879</v>
       </c>
       <c r="J7">
-        <v>0.0005505514641946941</v>
+        <v>0.001750526019878014</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.084201</v>
+        <v>1.433852333333333</v>
       </c>
       <c r="N7">
-        <v>36.252603</v>
+        <v>4.301557</v>
       </c>
       <c r="O7">
-        <v>0.377456049245055</v>
+        <v>0.1497118984699831</v>
       </c>
       <c r="P7">
-        <v>0.4091198696200947</v>
+        <v>0.1720229211556396</v>
       </c>
       <c r="Q7">
-        <v>2.723386168867501</v>
+        <v>1.907524734723833</v>
       </c>
       <c r="R7">
-        <v>16.340317013205</v>
+        <v>11.445148408343</v>
       </c>
       <c r="S7">
-        <v>0.0003116169469475383</v>
+        <v>0.0003922797772020046</v>
       </c>
       <c r="T7">
-        <v>0.0002252415432504855</v>
+        <v>0.0003011305994983712</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>0.375623</v>
       </c>
       <c r="I8">
-        <v>0.0004586636401734553</v>
+        <v>0.0002466066444683812</v>
       </c>
       <c r="J8">
-        <v>0.0004588057120818298</v>
+        <v>0.0002471297336394081</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.60302</v>
+        <v>2.326206</v>
       </c>
       <c r="N8">
-        <v>13.20604</v>
+        <v>4.652412</v>
       </c>
       <c r="O8">
-        <v>0.2062486251499857</v>
+        <v>0.2428846460657843</v>
       </c>
       <c r="P8">
-        <v>0.1490335290681818</v>
+        <v>0.186053910865194</v>
       </c>
       <c r="Q8">
-        <v>0.8267487271533333</v>
+        <v>0.291258825446</v>
       </c>
       <c r="R8">
-        <v>4.960492362919999</v>
+        <v>1.747552952676</v>
       </c>
       <c r="S8">
-        <v>9.459874519206291E-05</v>
+        <v>5.989696755917346E-05</v>
       </c>
       <c r="T8">
-        <v>6.837743442819523E-05</v>
+        <v>4.597945343468558E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>0.375623</v>
       </c>
       <c r="I9">
-        <v>0.0004586636401734553</v>
+        <v>0.0002466066444683812</v>
       </c>
       <c r="J9">
-        <v>0.0004588057120818298</v>
+        <v>0.0002471297336394081</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>8.668665000000001</v>
       </c>
       <c r="O9">
-        <v>0.09025669255057035</v>
+        <v>0.301705241695111</v>
       </c>
       <c r="P9">
-        <v>0.0978280951185844</v>
+        <v>0.3466672825257581</v>
       </c>
       <c r="Q9">
         <v>0.361794439255</v>
@@ -1013,10 +1013,10 @@
         <v>3.256149953295</v>
       </c>
       <c r="S9">
-        <v>4.139746315526098E-05</v>
+        <v>7.440251727295325E-05</v>
       </c>
       <c r="T9">
-        <v>4.488408884249109E-05</v>
+        <v>8.567179319208803E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>0.375623</v>
       </c>
       <c r="I10">
-        <v>0.0004586636401734553</v>
+        <v>0.0002466066444683812</v>
       </c>
       <c r="J10">
-        <v>0.0004588057120818298</v>
+        <v>0.0002471297336394081</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.577456666666667</v>
+        <v>1.056895</v>
       </c>
       <c r="N10">
-        <v>19.73237</v>
+        <v>3.170685</v>
       </c>
       <c r="O10">
-        <v>0.2054501416751135</v>
+        <v>0.1103528956608731</v>
       </c>
       <c r="P10">
-        <v>0.2226848273955795</v>
+        <v>0.1267983885287046</v>
       </c>
       <c r="Q10">
-        <v>0.8235480018344444</v>
+        <v>0.1323313568616666</v>
       </c>
       <c r="R10">
-        <v>7.41193201651</v>
+        <v>1.190982211755</v>
       </c>
       <c r="S10">
-        <v>9.423250985485967E-05</v>
+        <v>2.72137573062973E-05</v>
       </c>
       <c r="T10">
-        <v>0.0001021690708030482</v>
+        <v>3.133565198300495E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>0.375623</v>
       </c>
       <c r="I11">
-        <v>0.0004586636401734553</v>
+        <v>0.0002466066444683812</v>
       </c>
       <c r="J11">
-        <v>0.0004588057120818298</v>
+        <v>0.0002471297336394081</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.8303464999999999</v>
+        <v>1.400306</v>
       </c>
       <c r="N11">
-        <v>1.660693</v>
+        <v>2.800612</v>
       </c>
       <c r="O11">
-        <v>0.02593628733868784</v>
+        <v>0.1462092468138222</v>
       </c>
       <c r="P11">
-        <v>0.01874134399780903</v>
+        <v>0.1119988546620533</v>
       </c>
       <c r="Q11">
-        <v>0.1039657477898333</v>
+        <v>0.1753290468793333</v>
       </c>
       <c r="R11">
-        <v>0.6237944867389998</v>
+        <v>1.051974281276</v>
       </c>
       <c r="S11">
-        <v>1.189603196334726E-05</v>
+        <v>3.605617174700605E-05</v>
       </c>
       <c r="T11">
-        <v>8.5986356782853E-06</v>
+        <v>2.767824712055202E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>0.375623</v>
       </c>
       <c r="I12">
-        <v>0.0004586636401734553</v>
+        <v>0.0002466066444683812</v>
       </c>
       <c r="J12">
-        <v>0.0004588057120818298</v>
+        <v>0.0002471297336394081</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.030276666666667</v>
+        <v>0.4705963333333334</v>
       </c>
       <c r="N12">
-        <v>9.09083</v>
+        <v>1.411789</v>
       </c>
       <c r="O12">
-        <v>0.09465220404058775</v>
+        <v>0.04913607129442642</v>
       </c>
       <c r="P12">
-        <v>0.1025923347997507</v>
+        <v>0.05645864226265031</v>
       </c>
       <c r="Q12">
-        <v>0.3794138707877778</v>
+        <v>0.05892226883855556</v>
       </c>
       <c r="R12">
-        <v>3.41472483709</v>
+        <v>0.530300419547</v>
       </c>
       <c r="S12">
-        <v>4.34135244556966E-05</v>
+        <v>1.211728166427765E-05</v>
       </c>
       <c r="T12">
-        <v>4.706994922193709E-05</v>
+        <v>1.39526092240114E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>0.375623</v>
       </c>
       <c r="I13">
-        <v>0.0004586636401734553</v>
+        <v>0.0002466066444683812</v>
       </c>
       <c r="J13">
-        <v>0.0004588057120818298</v>
+        <v>0.0002471297336394081</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>12.084201</v>
+        <v>1.433852333333333</v>
       </c>
       <c r="N13">
-        <v>36.252603</v>
+        <v>4.301557</v>
       </c>
       <c r="O13">
-        <v>0.377456049245055</v>
+        <v>0.1497118984699831</v>
       </c>
       <c r="P13">
-        <v>0.4091198696200947</v>
+        <v>0.1720229211556396</v>
       </c>
       <c r="Q13">
-        <v>1.513034610741</v>
+        <v>0.1795293050012222</v>
       </c>
       <c r="R13">
-        <v>13.617311496669</v>
+        <v>1.615763745011</v>
       </c>
       <c r="S13">
-        <v>0.0001731253655522279</v>
+        <v>3.691994891867351E-05</v>
       </c>
       <c r="T13">
-        <v>0.0001877065331078729</v>
+        <v>4.251197868506611E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>177.1833293333333</v>
+        <v>326.738454</v>
       </c>
       <c r="H14">
-        <v>531.549988</v>
+        <v>980.215362</v>
       </c>
       <c r="I14">
-        <v>0.64906209798185</v>
+        <v>0.6435378591810926</v>
       </c>
       <c r="J14">
-        <v>0.6492631461636483</v>
+        <v>0.6449028981726783</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.60302</v>
+        <v>2.326206</v>
       </c>
       <c r="N14">
-        <v>13.20604</v>
+        <v>4.652412</v>
       </c>
       <c r="O14">
-        <v>0.2062486251499857</v>
+        <v>0.2428846460657843</v>
       </c>
       <c r="P14">
-        <v>0.1490335290681818</v>
+        <v>0.186053910865194</v>
       </c>
       <c r="Q14">
-        <v>1169.945067254587</v>
+        <v>760.060952125524</v>
       </c>
       <c r="R14">
-        <v>7019.67040352752</v>
+        <v>4560.365712753144</v>
       </c>
       <c r="S14">
-        <v>0.1338681653457219</v>
+        <v>0.1563054651571322</v>
       </c>
       <c r="T14">
-        <v>0.09676197796667925</v>
+        <v>0.1199867063333248</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>177.1833293333333</v>
+        <v>326.738454</v>
       </c>
       <c r="H15">
-        <v>531.549988</v>
+        <v>980.215362</v>
       </c>
       <c r="I15">
-        <v>0.64906209798185</v>
+        <v>0.6435378591810926</v>
       </c>
       <c r="J15">
-        <v>0.6492631461636483</v>
+        <v>0.6449028981726783</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>8.668665000000001</v>
       </c>
       <c r="O15">
-        <v>0.09025669255057035</v>
+        <v>0.301705241695111</v>
       </c>
       <c r="P15">
-        <v>0.0978280951185844</v>
+        <v>0.3466672825257581</v>
       </c>
       <c r="Q15">
-        <v>511.98097519178</v>
+        <v>944.12873344797</v>
       </c>
       <c r="R15">
-        <v>4607.82877672602</v>
+        <v>8497.158601031731</v>
       </c>
       <c r="S15">
-        <v>0.05858219822377601</v>
+        <v>0.1941587453441858</v>
       </c>
       <c r="T15">
-        <v>0.06351617681988875</v>
+        <v>0.2235667352025081</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>177.1833293333333</v>
+        <v>326.738454</v>
       </c>
       <c r="H16">
-        <v>531.549988</v>
+        <v>980.215362</v>
       </c>
       <c r="I16">
-        <v>0.64906209798185</v>
+        <v>0.6435378591810926</v>
       </c>
       <c r="J16">
-        <v>0.6492631461636483</v>
+        <v>0.6449028981726783</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.577456666666667</v>
+        <v>1.056895</v>
       </c>
       <c r="N16">
-        <v>19.73237</v>
+        <v>3.170685</v>
       </c>
       <c r="O16">
-        <v>0.2054501416751135</v>
+        <v>0.1103528956608731</v>
       </c>
       <c r="P16">
-        <v>0.2226848273955795</v>
+        <v>0.1267983885287046</v>
       </c>
       <c r="Q16">
-        <v>1165.415670745729</v>
+        <v>345.32823834033</v>
       </c>
       <c r="R16">
-        <v>10488.74103671156</v>
+        <v>3107.95414506297</v>
       </c>
       <c r="S16">
-        <v>0.1333498999863175</v>
+        <v>0.07101626622803278</v>
       </c>
       <c r="T16">
-        <v>0.1445810516377629</v>
+        <v>0.08177264824578689</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>177.1833293333333</v>
+        <v>326.738454</v>
       </c>
       <c r="H17">
-        <v>531.549988</v>
+        <v>980.215362</v>
       </c>
       <c r="I17">
-        <v>0.64906209798185</v>
+        <v>0.6435378591810926</v>
       </c>
       <c r="J17">
-        <v>0.6492631461636483</v>
+        <v>0.6449028981726783</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.8303464999999999</v>
+        <v>1.400306</v>
       </c>
       <c r="N17">
-        <v>1.660693</v>
+        <v>2.800612</v>
       </c>
       <c r="O17">
-        <v>0.02593628733868784</v>
+        <v>0.1462092468138222</v>
       </c>
       <c r="P17">
-        <v>0.01874134399780903</v>
+        <v>0.1119988546620533</v>
       </c>
       <c r="Q17">
-        <v>147.1235573702806</v>
+        <v>457.533817566924</v>
       </c>
       <c r="R17">
-        <v>882.7413442216838</v>
+        <v>2745.202905401544</v>
       </c>
       <c r="S17">
-        <v>0.01683426107390882</v>
+        <v>0.09409118568704714</v>
       </c>
       <c r="T17">
-        <v>0.0121680639673527</v>
+        <v>0.07222838596357878</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>177.1833293333333</v>
+        <v>326.738454</v>
       </c>
       <c r="H18">
-        <v>531.549988</v>
+        <v>980.215362</v>
       </c>
       <c r="I18">
-        <v>0.64906209798185</v>
+        <v>0.6435378591810926</v>
       </c>
       <c r="J18">
-        <v>0.6492631461636483</v>
+        <v>0.6449028981726783</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.030276666666667</v>
+        <v>0.4705963333333334</v>
       </c>
       <c r="N18">
-        <v>9.09083</v>
+        <v>1.411789</v>
       </c>
       <c r="O18">
-        <v>0.09465220404058775</v>
+        <v>0.04913607129442642</v>
       </c>
       <c r="P18">
-        <v>0.1025923347997507</v>
+        <v>0.05645864226265031</v>
       </c>
       <c r="Q18">
-        <v>536.9145086011156</v>
+        <v>153.761918411402</v>
       </c>
       <c r="R18">
-        <v>4832.23057741004</v>
+        <v>1383.857265702618</v>
       </c>
       <c r="S18">
-        <v>0.06143515813319002</v>
+        <v>0.03162092212938472</v>
       </c>
       <c r="T18">
-        <v>0.06660942206436046</v>
+        <v>0.03641034202207765</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>177.1833293333333</v>
+        <v>326.738454</v>
       </c>
       <c r="H19">
-        <v>531.549988</v>
+        <v>980.215362</v>
       </c>
       <c r="I19">
-        <v>0.64906209798185</v>
+        <v>0.6435378591810926</v>
       </c>
       <c r="J19">
-        <v>0.6492631461636483</v>
+        <v>0.6449028981726783</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>12.084201</v>
+        <v>1.433852333333333</v>
       </c>
       <c r="N19">
-        <v>36.252603</v>
+        <v>4.301557</v>
       </c>
       <c r="O19">
-        <v>0.377456049245055</v>
+        <v>0.1497118984699831</v>
       </c>
       <c r="P19">
-        <v>0.4091198696200947</v>
+        <v>0.1720229211556396</v>
       </c>
       <c r="Q19">
-        <v>2141.118965513196</v>
+        <v>468.494694657626</v>
       </c>
       <c r="R19">
-        <v>19270.07068961876</v>
+        <v>4216.452251918634</v>
       </c>
       <c r="S19">
-        <v>0.2449924152189359</v>
+        <v>0.09634527463531005</v>
       </c>
       <c r="T19">
-        <v>0.2656264537076043</v>
+        <v>0.1109380804054021</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,22 +1653,22 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.0282255</v>
+        <v>1.8936735</v>
       </c>
       <c r="H20">
-        <v>0.056451</v>
+        <v>3.787347</v>
       </c>
       <c r="I20">
-        <v>0.0001033963088712554</v>
+        <v>0.003729743393405316</v>
       </c>
       <c r="J20">
-        <v>6.895222404573569E-05</v>
+        <v>0.002491769820564798</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>6.60302</v>
+        <v>2.326206</v>
       </c>
       <c r="N20">
-        <v>13.20604</v>
+        <v>4.652412</v>
       </c>
       <c r="O20">
-        <v>0.2062486251499857</v>
+        <v>0.2428846460657843</v>
       </c>
       <c r="P20">
-        <v>0.1490335290681818</v>
+        <v>0.186053910865194</v>
       </c>
       <c r="Q20">
-        <v>0.18637354101</v>
+        <v>4.405074657741</v>
       </c>
       <c r="R20">
-        <v>0.74549416404</v>
+        <v>17.620298630964</v>
       </c>
       <c r="S20">
-        <v>2.132534655027971E-05</v>
+        <v>0.0009058974040234474</v>
       </c>
       <c r="T20">
-        <v>1.027619328663593E-05</v>
+        <v>0.0004636035200919436</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,22 +1715,22 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.0282255</v>
+        <v>1.8936735</v>
       </c>
       <c r="H21">
-        <v>0.056451</v>
+        <v>3.787347</v>
       </c>
       <c r="I21">
-        <v>0.0001033963088712554</v>
+        <v>0.003729743393405316</v>
       </c>
       <c r="J21">
-        <v>6.895222404573569E-05</v>
+        <v>0.002491769820564798</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>8.668665000000001</v>
       </c>
       <c r="O21">
-        <v>0.09025669255057035</v>
+        <v>0.301705241695111</v>
       </c>
       <c r="P21">
-        <v>0.0978280951185844</v>
+        <v>0.3466672825257581</v>
       </c>
       <c r="Q21">
-        <v>0.0815591346525</v>
+        <v>5.4718737302925</v>
       </c>
       <c r="R21">
-        <v>0.4893548079150001</v>
+        <v>32.831242381755</v>
       </c>
       <c r="S21">
-        <v>9.332208860656712E-06</v>
+        <v>0.001125283131968094</v>
       </c>
       <c r="T21">
-        <v>6.745464732584173E-06</v>
+        <v>0.0008638150723748946</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,22 +1777,22 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.0282255</v>
+        <v>1.8936735</v>
       </c>
       <c r="H22">
-        <v>0.056451</v>
+        <v>3.787347</v>
       </c>
       <c r="I22">
-        <v>0.0001033963088712554</v>
+        <v>0.003729743393405316</v>
       </c>
       <c r="J22">
-        <v>6.895222404573569E-05</v>
+        <v>0.002491769820564798</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>6.577456666666667</v>
+        <v>1.056895</v>
       </c>
       <c r="N22">
-        <v>19.73237</v>
+        <v>3.170685</v>
       </c>
       <c r="O22">
-        <v>0.2054501416751135</v>
+        <v>0.1103528956608731</v>
       </c>
       <c r="P22">
-        <v>0.2226848273955795</v>
+        <v>0.1267983885287046</v>
       </c>
       <c r="Q22">
-        <v>0.185652003145</v>
+        <v>2.0014140537825</v>
       </c>
       <c r="R22">
-        <v>1.11391201887</v>
+        <v>12.008484322695</v>
       </c>
       <c r="S22">
-        <v>2.124278630628323E-05</v>
+        <v>0.0004115879835342877</v>
       </c>
       <c r="T22">
-        <v>1.535461411016598E-05</v>
+        <v>0.0003159523978320759</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,22 +1839,22 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.0282255</v>
+        <v>1.8936735</v>
       </c>
       <c r="H23">
-        <v>0.056451</v>
+        <v>3.787347</v>
       </c>
       <c r="I23">
-        <v>0.0001033963088712554</v>
+        <v>0.003729743393405316</v>
       </c>
       <c r="J23">
-        <v>6.895222404573569E-05</v>
+        <v>0.002491769820564798</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.8303464999999999</v>
+        <v>1.400306</v>
       </c>
       <c r="N23">
-        <v>1.660693</v>
+        <v>2.800612</v>
       </c>
       <c r="O23">
-        <v>0.02593628733868784</v>
+        <v>0.1462092468138222</v>
       </c>
       <c r="P23">
-        <v>0.01874134399780903</v>
+        <v>0.1119988546620533</v>
       </c>
       <c r="Q23">
-        <v>0.02343694513575</v>
+        <v>2.651722364091</v>
       </c>
       <c r="R23">
-        <v>0.09374778054299998</v>
+        <v>10.606889456364</v>
       </c>
       <c r="S23">
-        <v>2.6817163766446E-06</v>
+        <v>0.0005453229723586207</v>
       </c>
       <c r="T23">
-        <v>1.292257350255132E-06</v>
+        <v>0.0002790753659847275</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,22 +1901,22 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.0282255</v>
+        <v>1.8936735</v>
       </c>
       <c r="H24">
-        <v>0.056451</v>
+        <v>3.787347</v>
       </c>
       <c r="I24">
-        <v>0.0001033963088712554</v>
+        <v>0.003729743393405316</v>
       </c>
       <c r="J24">
-        <v>6.895222404573569E-05</v>
+        <v>0.002491769820564798</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>3.030276666666667</v>
+        <v>0.4705963333333334</v>
       </c>
       <c r="N24">
-        <v>9.09083</v>
+        <v>1.411789</v>
       </c>
       <c r="O24">
-        <v>0.09465220404058775</v>
+        <v>0.04913607129442642</v>
       </c>
       <c r="P24">
-        <v>0.1025923347997507</v>
+        <v>0.05645864226265031</v>
       </c>
       <c r="Q24">
-        <v>0.085531074055</v>
+        <v>0.8911558056305001</v>
       </c>
       <c r="R24">
-        <v>0.51318644433</v>
+        <v>5.346934833783001</v>
       </c>
       <c r="S24">
-        <v>9.786688524325703E-06</v>
+        <v>0.0001832649372882796</v>
       </c>
       <c r="T24">
-        <v>7.073969654487533E-06</v>
+        <v>0.0001406819409001363</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,22 +1963,22 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.0282255</v>
+        <v>1.8936735</v>
       </c>
       <c r="H25">
-        <v>0.056451</v>
+        <v>3.787347</v>
       </c>
       <c r="I25">
-        <v>0.0001033963088712554</v>
+        <v>0.003729743393405316</v>
       </c>
       <c r="J25">
-        <v>6.895222404573569E-05</v>
+        <v>0.002491769820564798</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>12.084201</v>
+        <v>1.433852333333333</v>
       </c>
       <c r="N25">
-        <v>36.252603</v>
+        <v>4.301557</v>
       </c>
       <c r="O25">
-        <v>0.377456049245055</v>
+        <v>0.1497118984699831</v>
       </c>
       <c r="P25">
-        <v>0.4091198696200947</v>
+        <v>0.1720229211556396</v>
       </c>
       <c r="Q25">
-        <v>0.3410826153255</v>
+        <v>2.7152481665465</v>
       </c>
       <c r="R25">
-        <v>2.046495691953</v>
+        <v>16.291488999279</v>
       </c>
       <c r="S25">
-        <v>3.902756225306551E-05</v>
+        <v>0.0005583869642325871</v>
       </c>
       <c r="T25">
-        <v>2.820972491160694E-05</v>
+        <v>0.0004286415233810205</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.4890126666666667</v>
+        <v>50.45745666666667</v>
       </c>
       <c r="H26">
-        <v>1.467038</v>
+        <v>151.37237</v>
       </c>
       <c r="I26">
-        <v>0.001791362587894739</v>
+        <v>0.09938004922735362</v>
       </c>
       <c r="J26">
-        <v>0.001791917465759827</v>
+        <v>0.09959084901208372</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>6.60302</v>
+        <v>2.326206</v>
       </c>
       <c r="N26">
-        <v>13.20604</v>
+        <v>4.652412</v>
       </c>
       <c r="O26">
-        <v>0.2062486251499857</v>
+        <v>0.2428846460657843</v>
       </c>
       <c r="P26">
-        <v>0.1490335290681818</v>
+        <v>0.186053910865194</v>
       </c>
       <c r="Q26">
-        <v>3.228960418253334</v>
+        <v>117.37443844274</v>
       </c>
       <c r="R26">
-        <v>19.37376250952</v>
+        <v>704.2466306564399</v>
       </c>
       <c r="S26">
-        <v>0.0003694660708984104</v>
+        <v>0.024137888082586</v>
       </c>
       <c r="T26">
-        <v>0.0002670557837210998</v>
+        <v>0.01852926694508322</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F27">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>0.4890126666666667</v>
+        <v>50.45745666666667</v>
       </c>
       <c r="H27">
-        <v>1.467038</v>
+        <v>151.37237</v>
       </c>
       <c r="I27">
-        <v>0.001791362587894739</v>
+        <v>0.09938004922735362</v>
       </c>
       <c r="J27">
-        <v>0.001791917465759827</v>
+        <v>0.09959084901208372</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>8.668665000000001</v>
       </c>
       <c r="O27">
-        <v>0.09025669255057035</v>
+        <v>0.301705241695111</v>
       </c>
       <c r="P27">
-        <v>0.0978280951185844</v>
+        <v>0.3466672825257581</v>
       </c>
       <c r="Q27">
-        <v>1.41302899603</v>
+        <v>145.79959619845</v>
       </c>
       <c r="R27">
-        <v>12.71726096427</v>
+        <v>1312.19636578605</v>
       </c>
       <c r="S27">
-        <v>0.0001616824623422095</v>
+        <v>0.02998348177181075</v>
       </c>
       <c r="T27">
-        <v>0.000175299872285005</v>
+        <v>0.03452488899145215</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F28">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>0.4890126666666667</v>
+        <v>50.45745666666667</v>
       </c>
       <c r="H28">
-        <v>1.467038</v>
+        <v>151.37237</v>
       </c>
       <c r="I28">
-        <v>0.001791362587894739</v>
+        <v>0.09938004922735362</v>
       </c>
       <c r="J28">
-        <v>0.001791917465759827</v>
+        <v>0.09959084901208372</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>6.577456666666667</v>
+        <v>1.056895</v>
       </c>
       <c r="N28">
-        <v>19.73237</v>
+        <v>3.170685</v>
       </c>
       <c r="O28">
-        <v>0.2054501416751135</v>
+        <v>0.1103528956608731</v>
       </c>
       <c r="P28">
-        <v>0.2226848273955795</v>
+        <v>0.1267983885287046</v>
       </c>
       <c r="Q28">
-        <v>3.216459624451111</v>
+        <v>53.32823366371666</v>
       </c>
       <c r="R28">
-        <v>28.94813662006</v>
+        <v>479.9541029734499</v>
       </c>
       <c r="S28">
-        <v>0.0003680356974744721</v>
+        <v>0.01096687620315859</v>
       </c>
       <c r="T28">
-        <v>0.0003990328315698512</v>
+        <v>0.01262795916693775</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F29">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>0.4890126666666667</v>
+        <v>50.45745666666667</v>
       </c>
       <c r="H29">
-        <v>1.467038</v>
+        <v>151.37237</v>
       </c>
       <c r="I29">
-        <v>0.001791362587894739</v>
+        <v>0.09938004922735362</v>
       </c>
       <c r="J29">
-        <v>0.001791917465759827</v>
+        <v>0.09959084901208372</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.8303464999999999</v>
+        <v>1.400306</v>
       </c>
       <c r="N29">
-        <v>1.660693</v>
+        <v>2.800612</v>
       </c>
       <c r="O29">
-        <v>0.02593628733868784</v>
+        <v>0.1462092468138222</v>
       </c>
       <c r="P29">
-        <v>0.01874134399780903</v>
+        <v>0.1119988546620533</v>
       </c>
       <c r="Q29">
-        <v>0.4060499562223333</v>
+        <v>70.65587931507334</v>
       </c>
       <c r="R29">
-        <v>2.436299737334</v>
+        <v>423.93527589044</v>
       </c>
       <c r="S29">
-        <v>4.646129480741341E-05</v>
+        <v>0.01453028214585195</v>
       </c>
       <c r="T29">
-        <v>3.358294164148711E-05</v>
+        <v>0.01115406102417486</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F30">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>0.4890126666666667</v>
+        <v>50.45745666666667</v>
       </c>
       <c r="H30">
-        <v>1.467038</v>
+        <v>151.37237</v>
       </c>
       <c r="I30">
-        <v>0.001791362587894739</v>
+        <v>0.09938004922735362</v>
       </c>
       <c r="J30">
-        <v>0.001791917465759827</v>
+        <v>0.09959084901208372</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>3.030276666666667</v>
+        <v>0.4705963333333334</v>
       </c>
       <c r="N30">
-        <v>9.09083</v>
+        <v>1.411789</v>
       </c>
       <c r="O30">
-        <v>0.09465220404058775</v>
+        <v>0.04913607129442642</v>
       </c>
       <c r="P30">
-        <v>0.1025923347997507</v>
+        <v>0.05645864226265031</v>
       </c>
       <c r="Q30">
-        <v>1.481843673504445</v>
+        <v>23.74509409665889</v>
       </c>
       <c r="R30">
-        <v>13.33659306154</v>
+        <v>213.70584686993</v>
       </c>
       <c r="S30">
-        <v>0.0001695564171800882</v>
+        <v>0.004883145184078855</v>
       </c>
       <c r="T30">
-        <v>0.0001838369965807529</v>
+        <v>0.005622764117006856</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F31">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>0.4890126666666667</v>
+        <v>50.45745666666667</v>
       </c>
       <c r="H31">
-        <v>1.467038</v>
+        <v>151.37237</v>
       </c>
       <c r="I31">
-        <v>0.001791362587894739</v>
+        <v>0.09938004922735362</v>
       </c>
       <c r="J31">
-        <v>0.001791917465759827</v>
+        <v>0.09959084901208372</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>12.084201</v>
+        <v>1.433852333333333</v>
       </c>
       <c r="N31">
-        <v>36.252603</v>
+        <v>4.301557</v>
       </c>
       <c r="O31">
-        <v>0.377456049245055</v>
+        <v>0.1497118984699831</v>
       </c>
       <c r="P31">
-        <v>0.4091198696200947</v>
+        <v>0.1720229211556396</v>
       </c>
       <c r="Q31">
-        <v>5.909327355546001</v>
+        <v>72.34854197556555</v>
       </c>
       <c r="R31">
-        <v>53.183946199914</v>
+        <v>651.1368777800899</v>
       </c>
       <c r="S31">
-        <v>0.0006761606451921458</v>
+        <v>0.01487837583986749</v>
       </c>
       <c r="T31">
-        <v>0.0007331090399616308</v>
+        <v>0.01713190876742888</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>94.93248999999999</v>
+        <v>127.177053</v>
       </c>
       <c r="H32">
-        <v>284.79747</v>
+        <v>381.531159</v>
       </c>
       <c r="I32">
-        <v>0.3477589080072051</v>
+        <v>0.2504855104216792</v>
       </c>
       <c r="J32">
-        <v>0.3478666269702695</v>
+        <v>0.2510168272411558</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>6.60302</v>
+        <v>2.326206</v>
       </c>
       <c r="N32">
-        <v>13.20604</v>
+        <v>4.652412</v>
       </c>
       <c r="O32">
-        <v>0.2062486251499857</v>
+        <v>0.2428846460657843</v>
       </c>
       <c r="P32">
-        <v>0.1490335290681818</v>
+        <v>0.186053910865194</v>
       </c>
       <c r="Q32">
-        <v>626.8411301197999</v>
+        <v>295.840023750918</v>
       </c>
       <c r="R32">
-        <v>3761.0467807188</v>
+        <v>1775.040142505508</v>
       </c>
       <c r="S32">
-        <v>0.07172479666014642</v>
+        <v>0.06083908454337687</v>
       </c>
       <c r="T32">
-        <v>0.05184379106242401</v>
+        <v>0.0467026624011898</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>94.93248999999999</v>
+        <v>127.177053</v>
       </c>
       <c r="H33">
-        <v>284.79747</v>
+        <v>381.531159</v>
       </c>
       <c r="I33">
-        <v>0.3477589080072051</v>
+        <v>0.2504855104216792</v>
       </c>
       <c r="J33">
-        <v>0.3478666269702695</v>
+        <v>0.2510168272411558</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>8.668665000000001</v>
       </c>
       <c r="O33">
-        <v>0.09025669255057035</v>
+        <v>0.301705241695111</v>
       </c>
       <c r="P33">
-        <v>0.0978280951185844</v>
+        <v>0.3466672825257581</v>
       </c>
       <c r="Q33">
-        <v>274.31265114195</v>
+        <v>367.485089381415</v>
       </c>
       <c r="R33">
-        <v>2468.81386027755</v>
+        <v>3307.365804432735</v>
       </c>
       <c r="S33">
-        <v>0.03138756884172839</v>
+        <v>0.07557279146289597</v>
       </c>
       <c r="T33">
-        <v>0.03403112947182864</v>
+        <v>0.08701932136792916</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>94.93248999999999</v>
+        <v>127.177053</v>
       </c>
       <c r="H34">
-        <v>284.79747</v>
+        <v>381.531159</v>
       </c>
       <c r="I34">
-        <v>0.3477589080072051</v>
+        <v>0.2504855104216792</v>
       </c>
       <c r="J34">
-        <v>0.3478666269702695</v>
+        <v>0.2510168272411558</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>6.577456666666667</v>
+        <v>1.056895</v>
       </c>
       <c r="N34">
-        <v>19.73237</v>
+        <v>3.170685</v>
       </c>
       <c r="O34">
-        <v>0.2054501416751135</v>
+        <v>0.1103528956608731</v>
       </c>
       <c r="P34">
-        <v>0.2226848273955795</v>
+        <v>0.1267983885287046</v>
       </c>
       <c r="Q34">
-        <v>624.4143392337666</v>
+        <v>134.412791430435</v>
       </c>
       <c r="R34">
-        <v>5619.7290531039</v>
+        <v>1209.715122873915</v>
       </c>
       <c r="S34">
-        <v>0.07144711691886306</v>
+        <v>0.02764180139612411</v>
       </c>
       <c r="T34">
-        <v>0.0774646197835569</v>
+        <v>0.0318285291877668</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>94.93248999999999</v>
+        <v>127.177053</v>
       </c>
       <c r="H35">
-        <v>284.79747</v>
+        <v>381.531159</v>
       </c>
       <c r="I35">
-        <v>0.3477589080072051</v>
+        <v>0.2504855104216792</v>
       </c>
       <c r="J35">
-        <v>0.3478666269702695</v>
+        <v>0.2510168272411558</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.8303464999999999</v>
+        <v>1.400306</v>
       </c>
       <c r="N35">
-        <v>1.660693</v>
+        <v>2.800612</v>
       </c>
       <c r="O35">
-        <v>0.02593628733868784</v>
+        <v>0.1462092468138222</v>
       </c>
       <c r="P35">
-        <v>0.01874134399780903</v>
+        <v>0.1119988546620533</v>
       </c>
       <c r="Q35">
-        <v>78.82686080778498</v>
+        <v>178.086790378218</v>
       </c>
       <c r="R35">
-        <v>472.9611648467099</v>
+        <v>1068.520742269308</v>
       </c>
       <c r="S35">
-        <v>0.009019574962663184</v>
+        <v>0.03662329781652953</v>
       </c>
       <c r="T35">
-        <v>0.006519488121407334</v>
+        <v>0.02811359715191195</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>94.93248999999999</v>
+        <v>127.177053</v>
       </c>
       <c r="H36">
-        <v>284.79747</v>
+        <v>381.531159</v>
       </c>
       <c r="I36">
-        <v>0.3477589080072051</v>
+        <v>0.2504855104216792</v>
       </c>
       <c r="J36">
-        <v>0.3478666269702695</v>
+        <v>0.2510168272411558</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>3.030276666666667</v>
+        <v>0.4705963333333334</v>
       </c>
       <c r="N36">
-        <v>9.09083</v>
+        <v>1.411789</v>
       </c>
       <c r="O36">
-        <v>0.09465220404058775</v>
+        <v>0.04913607129442642</v>
       </c>
       <c r="P36">
-        <v>0.1025923347997507</v>
+        <v>0.05645864226265031</v>
       </c>
       <c r="Q36">
-        <v>287.6717093555666</v>
+        <v>59.84905482593901</v>
       </c>
       <c r="R36">
-        <v>2589.0453842001</v>
+        <v>538.641493433451</v>
       </c>
       <c r="S36">
-        <v>0.03291614711762996</v>
+        <v>0.01230787389830042</v>
       </c>
       <c r="T36">
-        <v>0.03568844945979386</v>
+        <v>0.01417206925111391</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>94.93248999999999</v>
+        <v>127.177053</v>
       </c>
       <c r="H37">
-        <v>284.79747</v>
+        <v>381.531159</v>
       </c>
       <c r="I37">
-        <v>0.3477589080072051</v>
+        <v>0.2504855104216792</v>
       </c>
       <c r="J37">
-        <v>0.3478666269702695</v>
+        <v>0.2510168272411558</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>12.084201</v>
+        <v>1.433852333333333</v>
       </c>
       <c r="N37">
-        <v>36.252603</v>
+        <v>4.301557</v>
       </c>
       <c r="O37">
-        <v>0.377456049245055</v>
+        <v>0.1497118984699831</v>
       </c>
       <c r="P37">
-        <v>0.4091198696200947</v>
+        <v>0.1720229211556396</v>
       </c>
       <c r="Q37">
-        <v>1147.18329059049</v>
+        <v>182.353114190507</v>
       </c>
       <c r="R37">
-        <v>10324.64961531441</v>
+        <v>1641.178027714563</v>
       </c>
       <c r="S37">
-        <v>0.1312637035061742</v>
+        <v>0.03750066130445234</v>
       </c>
       <c r="T37">
-        <v>0.1423191490712588</v>
+        <v>0.04318064788124414</v>
       </c>
     </row>
   </sheetData>
